--- a/Gsport/Gsport/FitxersImport/Jugadors.xlsx
+++ b/Gsport/Gsport/FitxersImport/Jugadors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>dni</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -231,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -263,6 +266,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,7 +576,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -707,9 +713,7 @@
       <c r="O2" s="2">
         <v>1</v>
       </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
+      <c r="P2" s="2"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
@@ -771,7 +775,7 @@
         <v>12</v>
       </c>
       <c r="O3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="6"/>
@@ -835,11 +839,9 @@
         <v>11</v>
       </c>
       <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="P4" s="2"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -899,11 +901,9 @@
         <v>9</v>
       </c>
       <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P5" s="2"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -965,11 +965,9 @@
         <v>8</v>
       </c>
       <c r="O6" s="2">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P6" s="2"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
@@ -1031,7 +1029,7 @@
         <v>7</v>
       </c>
       <c r="O7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="6"/>
@@ -1097,9 +1095,7 @@
       <c r="O8" s="2">
         <v>1</v>
       </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
+      <c r="P8" s="2"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1127,7 +1123,9 @@
       <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="E9" s="9">
         <v>33604</v>
       </c>
@@ -1158,10 +1156,10 @@
       <c r="N9" s="2">
         <v>5</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
+      <c r="O9" s="2">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>

--- a/Gsport/Gsport/FitxersImport/Jugadors.xlsx
+++ b/Gsport/Gsport/FitxersImport/Jugadors.xlsx
@@ -190,16 +190,19 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -576,7 +579,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -684,7 +687,7 @@
         <v>33604</v>
       </c>
       <c r="F2" s="9">
-        <v>33604</v>
+        <v>36526</v>
       </c>
       <c r="G2" s="2">
         <v>5858585858</v>
@@ -748,7 +751,7 @@
         <v>33604</v>
       </c>
       <c r="F3" s="9">
-        <v>33604</v>
+        <v>36161</v>
       </c>
       <c r="G3" s="2">
         <v>6666666666</v>
@@ -812,7 +815,7 @@
         <v>33604</v>
       </c>
       <c r="F4" s="9">
-        <v>33604</v>
+        <v>37622</v>
       </c>
       <c r="G4" s="2">
         <v>9999999999</v>
@@ -938,7 +941,7 @@
         <v>33604</v>
       </c>
       <c r="F6" s="9">
-        <v>33604</v>
+        <v>37257</v>
       </c>
       <c r="G6" s="2">
         <v>77777777777</v>
@@ -1002,7 +1005,7 @@
         <v>33604</v>
       </c>
       <c r="F7" s="9">
-        <v>33604</v>
+        <v>35431</v>
       </c>
       <c r="G7" s="2">
         <v>4444444444</v>
@@ -1066,7 +1069,7 @@
         <v>33604</v>
       </c>
       <c r="F8" s="9">
-        <v>33604</v>
+        <v>35065</v>
       </c>
       <c r="G8" s="2">
         <v>5555555555</v>
@@ -1130,7 +1133,7 @@
         <v>33604</v>
       </c>
       <c r="F9" s="9">
-        <v>33604</v>
+        <v>38718</v>
       </c>
       <c r="G9" s="2">
         <v>1252565854</v>

--- a/Gsport/Gsport/FitxersImport/Jugadors.xlsx
+++ b/Gsport/Gsport/FitxersImport/Jugadors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>dni</t>
   </si>
@@ -88,30 +88,6 @@
     <t>78945612h</t>
   </si>
   <si>
-    <t>joan</t>
-  </si>
-  <si>
-    <t>josep</t>
-  </si>
-  <si>
-    <t>pere</t>
-  </si>
-  <si>
-    <t>antoni</t>
-  </si>
-  <si>
-    <t>sergi</t>
-  </si>
-  <si>
-    <t>david</t>
-  </si>
-  <si>
-    <t>joel</t>
-  </si>
-  <si>
-    <t>miki</t>
-  </si>
-  <si>
     <t>noguer</t>
   </si>
   <si>
@@ -139,30 +115,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>eeeeeeeeeeeee</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>ddddddddddddddd</t>
-  </si>
-  <si>
-    <t>ffffffffffffffff</t>
-  </si>
-  <si>
-    <t>gggggggggggg</t>
-  </si>
-  <si>
-    <t>hhhhhhhhhhh</t>
-  </si>
-  <si>
-    <t>bbbbbbbbbbbbb</t>
-  </si>
-  <si>
-    <t>yyyyyyyyyyy</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
@@ -170,6 +122,78 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Josep</t>
+  </si>
+  <si>
+    <t>Pere</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Sergi</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Miki</t>
+  </si>
+  <si>
+    <t>joan.noguer@hotmail.com</t>
+  </si>
+  <si>
+    <t>josep1@gmail.com</t>
+  </si>
+  <si>
+    <t>pereee@hotmail.com</t>
+  </si>
+  <si>
+    <t>antoniiooooo@hotmail.com</t>
+  </si>
+  <si>
+    <t>sergi92@gmail.com</t>
+  </si>
+  <si>
+    <t>sisterna@hotmail.com</t>
+  </si>
+  <si>
+    <t>joey@yahoo.es</t>
+  </si>
+  <si>
+    <t>yuyuhakusho@niancat.japo</t>
+  </si>
+  <si>
+    <t>39485615/76</t>
+  </si>
+  <si>
+    <t>123648679/13</t>
+  </si>
+  <si>
+    <t>75492367/09</t>
+  </si>
+  <si>
+    <t>75892345/68</t>
+  </si>
+  <si>
+    <t>909873256/89</t>
+  </si>
+  <si>
+    <t>37584979/99</t>
+  </si>
+  <si>
+    <t>647836578/78</t>
+  </si>
+  <si>
+    <t>176947899/13</t>
   </si>
 </sst>
 </file>
@@ -179,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -203,6 +227,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -234,10 +264,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -274,8 +305,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,7 +614,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -675,10 +710,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="10">
         <v>0</v>
@@ -687,28 +722,28 @@
         <v>33604</v>
       </c>
       <c r="F2" s="9">
-        <v>36526</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5858585858</v>
+        <v>36679</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2">
         <v>658423658</v>
       </c>
       <c r="J2" s="2">
-        <v>88888888</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>41</v>
+        <v>972867698</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2">
         <v>10</v>
@@ -739,10 +774,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D3" s="10">
         <v>0</v>
@@ -751,28 +786,28 @@
         <v>33604</v>
       </c>
       <c r="F3" s="9">
-        <v>36161</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6666666666</v>
+        <v>36408</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2">
         <v>658545852</v>
       </c>
       <c r="J3" s="2">
-        <v>555555</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>42</v>
+        <v>972866987</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="L3" s="2">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N3" s="2">
         <v>12</v>
@@ -803,10 +838,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D4" s="10">
         <v>0</v>
@@ -815,28 +850,28 @@
         <v>33604</v>
       </c>
       <c r="F4" s="9">
-        <v>37622</v>
-      </c>
-      <c r="G4" s="2">
-        <v>9999999999</v>
+        <v>37667</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2">
         <v>632586594</v>
       </c>
       <c r="J4" s="2">
-        <v>2222222</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>43</v>
+        <v>972860970</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="L4" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="N4" s="2">
         <v>11</v>
@@ -867,10 +902,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="D5" s="10">
         <v>0</v>
@@ -878,27 +913,29 @@
       <c r="E5" s="9">
         <v>33604</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="2">
-        <v>8888888888</v>
+      <c r="F5" s="9">
+        <v>34202</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2">
         <v>545545455</v>
       </c>
       <c r="J5" s="2">
-        <v>9595595</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>44</v>
+        <v>972863687</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="L5" s="2">
-        <v>4</v>
+        <v>655</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N5" s="2">
         <v>9</v>
@@ -929,10 +966,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
@@ -941,28 +978,28 @@
         <v>33604</v>
       </c>
       <c r="F6" s="9">
-        <v>37257</v>
-      </c>
-      <c r="G6" s="2">
-        <v>77777777777</v>
+        <v>37429</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2">
-        <v>11111111</v>
+        <v>68743598</v>
       </c>
       <c r="J6" s="2">
-        <v>454545</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>45</v>
+        <v>972868843</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="L6" s="2">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2">
         <v>8</v>
@@ -993,10 +1030,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
@@ -1005,28 +1042,28 @@
         <v>33604</v>
       </c>
       <c r="F7" s="9">
-        <v>35431</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4444444444</v>
+        <v>35492</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I7" s="2">
-        <v>55555555</v>
+        <v>623479043</v>
       </c>
       <c r="J7" s="2">
-        <v>26262626</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>46</v>
+        <v>972867735</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="L7" s="2">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2">
         <v>7</v>
@@ -1057,10 +1094,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -1069,28 +1106,28 @@
         <v>33604</v>
       </c>
       <c r="F8" s="9">
-        <v>35065</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5555555555</v>
+        <v>35286</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I8" s="2">
-        <v>8888888</v>
+        <v>612879544</v>
       </c>
       <c r="J8" s="2">
-        <v>5454545</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>972860354</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="L8" s="2">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N8" s="2">
         <v>6</v>
@@ -1121,40 +1158,40 @@
         <v>23</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E9" s="9">
         <v>33604</v>
       </c>
       <c r="F9" s="9">
-        <v>38718</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1252565854</v>
+        <v>38838</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I9" s="2">
-        <v>99999999</v>
+        <v>680754376</v>
       </c>
       <c r="J9" s="2">
-        <v>3939345</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>972864412</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="L9" s="2">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="N9" s="2">
         <v>5</v>
@@ -1419,7 +1456,17 @@
       <c r="AF16" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="K8" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Gsport/Gsport/FitxersImport/Jugadors.xlsx
+++ b/Gsport/Gsport/FitxersImport/Jugadors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
   <si>
     <t>dni</t>
   </si>
@@ -194,6 +194,114 @@
   </si>
   <si>
     <t>176947899/13</t>
+  </si>
+  <si>
+    <t>41577794G</t>
+  </si>
+  <si>
+    <t>Castelló</t>
+  </si>
+  <si>
+    <t>davidcastello91@gmail.com</t>
+  </si>
+  <si>
+    <t>A vegades</t>
+  </si>
+  <si>
+    <t>45367876/15</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Recarens</t>
+  </si>
+  <si>
+    <t>40358517A</t>
+  </si>
+  <si>
+    <t>3627849/54</t>
+  </si>
+  <si>
+    <t>Sempre</t>
+  </si>
+  <si>
+    <t>eric.recarens@gmail.com</t>
+  </si>
+  <si>
+    <t>41657684T</t>
+  </si>
+  <si>
+    <t>Jordi</t>
+  </si>
+  <si>
+    <t>Fontvella</t>
+  </si>
+  <si>
+    <t>4134534/34</t>
+  </si>
+  <si>
+    <t>aigua@hotmail.com</t>
+  </si>
+  <si>
+    <t>46578932R</t>
+  </si>
+  <si>
+    <t>Manel</t>
+  </si>
+  <si>
+    <t>Rovira</t>
+  </si>
+  <si>
+    <t>46578975/32</t>
+  </si>
+  <si>
+    <t>manu@gmail.com</t>
+  </si>
+  <si>
+    <t>45378956W</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Torro</t>
+  </si>
+  <si>
+    <t>4573563/87</t>
+  </si>
+  <si>
+    <t>toroo@hotmail.com</t>
+  </si>
+  <si>
+    <t>48736590U</t>
+  </si>
+  <si>
+    <t>Miquel</t>
+  </si>
+  <si>
+    <t>Puig</t>
+  </si>
+  <si>
+    <t>47853267/12</t>
+  </si>
+  <si>
+    <t>putxi@gmail.com</t>
+  </si>
+  <si>
+    <t>45739821E</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Ronaldo</t>
+  </si>
+  <si>
+    <t>46578908/89</t>
+  </si>
+  <si>
+    <t>cr@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -203,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -223,16 +331,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -266,9 +369,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -276,9 +379,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -305,7 +405,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -613,8 +719,8 @@
   <dimension ref="A1:AZ16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -635,8 +741,8 @@
     <col min="14" max="14" width="5.28515625" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" customWidth="1"/>
     <col min="16" max="16" width="19.5703125" customWidth="1"/>
-    <col min="17" max="32" width="5.28515625" style="5" customWidth="1"/>
-    <col min="33" max="52" width="9.140625" style="5"/>
+    <col min="17" max="32" width="5.28515625" style="4" customWidth="1"/>
+    <col min="33" max="52" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -688,46 +794,46 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
     </row>
     <row r="2" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>33604</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>36679</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="2">
@@ -736,13 +842,13 @@
       <c r="J2" s="2">
         <v>972867698</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>44</v>
       </c>
       <c r="L2" s="2">
         <v>15</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="N2" s="2">
@@ -752,46 +858,46 @@
         <v>1</v>
       </c>
       <c r="P2" s="2"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>0</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>33604</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>36408</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="2">
@@ -800,13 +906,13 @@
       <c r="J3" s="2">
         <v>972866987</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>45</v>
       </c>
       <c r="L3" s="2">
         <v>166</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="2">
@@ -816,46 +922,46 @@
         <v>2</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
     </row>
     <row r="4" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>33604</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>37667</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="2">
@@ -864,13 +970,13 @@
       <c r="J4" s="2">
         <v>972860970</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>46</v>
       </c>
       <c r="L4" s="2">
         <v>17</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N4" s="2">
@@ -880,46 +986,46 @@
         <v>3</v>
       </c>
       <c r="P4" s="2"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
     </row>
     <row r="5" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>33604</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>34202</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="2">
@@ -928,13 +1034,13 @@
       <c r="J5" s="2">
         <v>972863687</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>47</v>
       </c>
       <c r="L5" s="2">
         <v>655</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="N5" s="2">
@@ -943,47 +1049,49 @@
       <c r="O5" s="2">
         <v>4</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
+      <c r="P5" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
     </row>
     <row r="6" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>33604</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>37429</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="2">
@@ -992,13 +1100,13 @@
       <c r="J6" s="2">
         <v>972868843</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>48</v>
       </c>
       <c r="L6" s="2">
         <v>78</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N6" s="2">
@@ -1007,47 +1115,49 @@
       <c r="O6" s="2">
         <v>2</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
+      <c r="P6" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
     </row>
     <row r="7" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>33604</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>35492</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="2">
@@ -1056,13 +1166,13 @@
       <c r="J7" s="2">
         <v>972867735</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>49</v>
       </c>
       <c r="L7" s="2">
         <v>89</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N7" s="2">
@@ -1071,47 +1181,49 @@
       <c r="O7" s="2">
         <v>4</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
+      <c r="P7" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
     </row>
     <row r="8" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>33604</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>35286</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I8" s="2">
@@ -1120,13 +1232,13 @@
       <c r="J8" s="2">
         <v>972860354</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11" t="s">
         <v>50</v>
       </c>
       <c r="L8" s="2">
         <v>56</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="N8" s="2">
@@ -1135,47 +1247,49 @@
       <c r="O8" s="2">
         <v>1</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
+      <c r="P8" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
     </row>
     <row r="9" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>33604</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>38838</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="2">
@@ -1184,13 +1298,13 @@
       <c r="J9" s="2">
         <v>972864412</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="11" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="2">
         <v>88</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N9" s="2">
@@ -1199,261 +1313,487 @@
       <c r="O9" s="2">
         <v>3</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
+      <c r="P9" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
     </row>
     <row r="10" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>33605</v>
+      </c>
+      <c r="F10" s="8">
+        <v>33559</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="2">
+        <v>680469476</v>
+      </c>
+      <c r="J10" s="2">
+        <v>972760141</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="2">
+        <v>44</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="2">
+        <v>23</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
     </row>
     <row r="11" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
+      <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>33606</v>
+      </c>
+      <c r="F11" s="13">
+        <v>33626</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="2">
+        <v>603634582</v>
+      </c>
+      <c r="J11" s="2">
+        <v>972865748</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="2">
+        <v>55</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="2">
+        <v>23</v>
+      </c>
+      <c r="O11" s="2">
+        <v>4</v>
+      </c>
+      <c r="P11" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
     </row>
     <row r="12" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
+      <c r="A12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>33607</v>
+      </c>
+      <c r="F12" s="13">
+        <v>34023</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="2">
+        <v>678932465</v>
+      </c>
+      <c r="J12" s="2">
+        <v>972864595</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="2">
+        <v>56</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="2">
+        <v>22</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2</v>
+      </c>
+      <c r="P12" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
     </row>
     <row r="13" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
+      <c r="A13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>33608</v>
+      </c>
+      <c r="F13" s="13">
+        <v>34024</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2">
+        <v>685932561</v>
+      </c>
+      <c r="J13" s="2">
+        <v>972864739</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="2">
+        <v>557</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="2">
+        <v>22</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
     </row>
     <row r="14" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
+      <c r="A14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>33609</v>
+      </c>
+      <c r="F14" s="13">
+        <v>34145</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="2">
+        <v>697087352</v>
+      </c>
+      <c r="J14" s="2">
+        <v>972865935</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="2">
+        <v>443</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="2">
+        <v>21</v>
+      </c>
+      <c r="O14" s="2">
+        <v>4</v>
+      </c>
+      <c r="P14" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
     </row>
     <row r="15" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
+      <c r="A15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>33610</v>
+      </c>
+      <c r="F15" s="13">
+        <v>33415</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="2">
+        <v>689704685</v>
+      </c>
+      <c r="J15" s="2">
+        <v>972867936</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="2">
+        <v>22</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="2">
+        <v>23</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
     </row>
     <row r="16" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>33611</v>
+      </c>
+      <c r="F16" s="13">
+        <v>33370</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="2">
+        <v>683715902</v>
+      </c>
+      <c r="J16" s="2">
+        <v>972867042</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="2">
+        <v>54</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="2">
+        <v>24</v>
+      </c>
+      <c r="O16" s="2">
+        <v>3</v>
+      </c>
+      <c r="P16" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1465,8 +1805,15 @@
     <hyperlink ref="K7" r:id="rId6"/>
     <hyperlink ref="K8" r:id="rId7"/>
     <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="K10" r:id="rId9"/>
+    <hyperlink ref="K11" r:id="rId10"/>
+    <hyperlink ref="K12" r:id="rId11"/>
+    <hyperlink ref="K13" r:id="rId12"/>
+    <hyperlink ref="K14" r:id="rId13"/>
+    <hyperlink ref="K15" r:id="rId14"/>
+    <hyperlink ref="K16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Gsport/Gsport/FitxersImport/Jugadors.xlsx
+++ b/Gsport/Gsport/FitxersImport/Jugadors.xlsx
@@ -718,9 +718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1050,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -1116,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
@@ -1182,7 +1182,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -1314,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -1446,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="P12" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -1578,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -1644,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -1776,7 +1776,7 @@
         <v>3</v>
       </c>
       <c r="P16" s="2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
